--- a/biology/Médecine/Acanthosis_nigricans/Acanthosis_nigricans.xlsx
+++ b/biology/Médecine/Acanthosis_nigricans/Acanthosis_nigricans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acanthosis nigricans est une maladie rare, de la peau faite de taches hyperpigmentées sur une peau épaissie. L'origine étymologique de ce nom est à la fois grecque et latine : du grec akantha qui signifie « écaille, épine », et du latin : nigricare qui signifie « noircir, devenir noir ».
@@ -515,7 +527,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acanthosis nigricans est une maladie rare.
 </t>
@@ -546,12 +560,12 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mécanismes physiopathologiques sont mal connus.
 Les coupes histologiques permettent le diagnostic de certitude et sont surtout utiles dans les formes débutantes ou les cas atypiques ou douteux. Elles mettent en évidence une papillomatose avec acanthose et surcharge pigmentaire.
-Causes
-Il existe des facteurs favorisants : l'hérédité, un cancer, l'obésité, le diabète, un hypercorticisme, certains médicaments (hormones).
 </t>
         </is>
       </c>
@@ -577,10 +591,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des facteurs favorisants : l'hérédité, un cancer, l'obésité, le diabète, un hypercorticisme, certains médicaments (hormones).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les taches cutanées sont constituées d'une hyperkératose orthokératosique hyperpigmentée, réalisant un ensemble de placards initialement gris sale, puis foncés (brun, noir), donnant un aspect bronzé ou sale, avec des reliefs cutanés épaissis et rugueux, de disposition symétrique, non prurigineux.
 Elles siègent de façon élective dans les grands plis (aisselles, aine, nuque, dans les régions latéro-cervicales, au niveau de l'œil, des paupières, des conjonctives, des commissures des lèvres, au niveau des seins (au niveau des aréoles ou des plis sous-mammaires), au niveau de la vulve, du périnée, et des extrémités (dos des doigts). À noter qu'il existerait des formes diffuses (tout le visage…).
@@ -589,37 +642,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Acanthosis_nigricans</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Diagnostic différentiel</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont les autres hyperkératoses telles le psoriasis qui, lui, donne une hyperkératose parakératosique.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -641,65 +663,275 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les autres hyperkératoses telles le psoriasis qui, lui, donne une hyperkératose parakératosique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Formes cliniques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Formes bénignes
-Pollitzer et Janowsky (1890).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Formes bénignes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pollitzer et Janowsky (1890).
 Héréditaire.
 Maladie nævique apparaissant souvent dès le plus jeune âge (enfance, adolescence).
-Acanthosis nigricans juvénile bénin.
-Formes paranéoplasique : Acanthosis nigricans malin
-Darier (1893).
+Acanthosis nigricans juvénile bénin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Formes cliniques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Formes paranéoplasique : Acanthosis nigricans malin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Darier (1893).
 Variété apparaissant dans la deuxième moitié de la vie: 35 à 50 ans.
-Il faut rechercher un cancer viscéral sous-jacent : gastrique (60 à 70 % des cas…), du tube digestif, du foie, un mélanome, un lymphome, etc.
-Formes endocrinienne : Pseudo-acanthosis nigricans
-Curth (1951).
-Acanthosis nigricans apparaissant chez des patients obèses, atteints d'hypercorticisme, dans la maladie d'Addison… C'est un signe d'insulino-résistance.
-Acanthosis nigricans médicamenteux
-Hormones : le diénestrol, le diéthylstilbestrol (distilbène), l'éthinylestradiol, le mestranol,
-Très rarement: acide nicotinique.
-Oculaire
-Conjonctivite exsudative puis papillaire, avec risque d'obstruction du canal lacrymal
-Acanthosis nigricans associé à des syndromes
-Le syndrome de Bloch-Miescher encore appelé syndrome de Miescher,
+Il faut rechercher un cancer viscéral sous-jacent : gastrique (60 à 70 % des cas…), du tube digestif, du foie, un mélanome, un lymphome, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formes cliniques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Formes endocrinienne : Pseudo-acanthosis nigricans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Curth (1951).
+Acanthosis nigricans apparaissant chez des patients obèses, atteints d'hypercorticisme, dans la maladie d'Addison… C'est un signe d'insulino-résistance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Formes cliniques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acanthosis nigricans médicamenteux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hormones : le diénestrol, le diéthylstilbestrol (distilbène), l'éthinylestradiol, le mestranol,
+Très rarement: acide nicotinique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Formes cliniques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Oculaire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Conjonctivite exsudative puis papillaire, avec risque d'obstruction du canal lacrymal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Formes cliniques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acanthosis nigricans associé à des syndromes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le syndrome de Bloch-Miescher encore appelé syndrome de Miescher,
 syndrome de Berardinelli-Seip.
 Le syndrome de Bloom,
 Le syndrome de Prader-Willi,
 Le syndrome de Crouzon,
 L'achondroplasie.
 Le syndrome de Gougerot Carteaud : « est-ce vraiment une forme d'acanthosis nigricans ou un diagnostic différentiel ? »
-Le syndrome de Stein-Leventhal[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Acanthosis_nigricans</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Le syndrome de Stein-Leventhal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosis_nigricans</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus important reste le traitement de la maladie causale ou de la pathologie associée. Lorsqu'il est possible, le traitement de la cause entraîne une diminution ou disparition relative de l'acanthosis nigricans.
 Le vécu du sujet vis-à-vis de cette maladie conditionne le traitement, qui est symptomatique, et dont le principe est la lutte contre l'hyperkératose et l'hyperpigmentation par application de topiques locaux ou traitement per os.
